--- a/power_comp_1_row_10_5_col_2.xlsx
+++ b/power_comp_1_row_10_5_col_2.xlsx
@@ -65,16 +65,16 @@
     <t xml:space="preserve">&lt; -0.0312</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0935</t>
+    <t xml:space="preserve">&lt; -0.0934</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0615</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0303</t>
+    <t xml:space="preserve">&lt; -0.0622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0302</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
